--- a/resource/top_10_stocks_in_funds.xlsx
+++ b/resource/top_10_stocks_in_funds.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cocoa\Hole\ARK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15902\go\src\github.com\skeyic\ark-robot\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7256A97-D3A6-471D-A9E4-A89738CF048F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8E73C-07C4-4CF2-AF6D-BCB0BB234F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="165" windowWidth="28035" windowHeight="20475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StockOfFundTop10" sheetId="2" r:id="rId1"/>
+    <sheet name="ARKG" sheetId="6" r:id="rId1"/>
+    <sheet name="ARKK" sheetId="5" r:id="rId2"/>
+    <sheet name="ARKQ" sheetId="4" r:id="rId3"/>
+    <sheet name="ARKW" sheetId="3" r:id="rId4"/>
+    <sheet name="ARKF" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
   <si>
     <t>基金</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,12 +58,23 @@
     <t>EXAMPLE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>持有市值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓均价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +103,13 @@
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -161,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +195,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +482,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6881A1E6-E610-42B7-B2DC-D2FCC1A65EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5D3B50-71B3-46D7-BAA6-A2F85D4251AD}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>21.210999999999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5680B69-1748-4D53-BA8B-430C36CE1C7E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -501,6 +661,165 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B4CDCD-4914-40BC-A939-3021ED3B00DB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2779E1FD-482E-493C-AFDD-E630F7F9ECAF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6881A1E6-E610-42B7-B2DC-D2FCC1A65EF9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
